--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,45 +40,42 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
     <t>illegal</t>
   </si>
   <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>disturbing</t>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>seriously</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>seriously</t>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
@@ -91,28 +88,28 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>social</t>
@@ -124,19 +121,16 @@
     <t>netflix</t>
   </si>
   <si>
+    <t>media</t>
+  </si>
+  <si>
     <t>dilemma</t>
   </si>
   <si>
-    <t>media</t>
+    <t>watch</t>
   </si>
   <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -497,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,10 +499,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -569,10 +563,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -587,16 +581,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -608,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -637,16 +631,16 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>0.8333333333333334</v>
+        <v>0.86</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -658,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -666,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8846153846153846</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -684,19 +678,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.78</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L5">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -708,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -716,13 +710,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8484848484848485</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -734,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6">
         <v>0.7543859649122807</v>
@@ -766,13 +760,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -784,19 +778,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.6166666666666667</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -808,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -816,37 +810,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8">
-        <v>28</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>12</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="K8">
-        <v>0.5733333333333334</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -858,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -866,13 +860,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6842105263157895</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -884,19 +878,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.4827586206896552</v>
+        <v>0.55</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -908,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -916,13 +910,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -934,19 +928,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.3939393939393939</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -958,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -966,13 +960,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6159420289855072</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C11">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D11">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -984,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.2708333333333333</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1008,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1016,13 +1010,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5652173913043478</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1034,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.1357012750455373</v>
+        <v>0.1320582877959927</v>
       </c>
       <c r="L12">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M12">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1058,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>949</v>
+        <v>953</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1066,13 +1060,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5357142857142857</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1084,19 +1078,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.07067137809187279</v>
+        <v>0.06713780918727916</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1108,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1116,37 +1110,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5319148936170213</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>25</v>
       </c>
-      <c r="D14">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>22</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.05555555555555555</v>
+        <v>0.06296296296296296</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1158,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1166,13 +1160,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4615384615384616</v>
+        <v>0.4</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1187,16 +1181,16 @@
         <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.05396825396825397</v>
+        <v>0.05572289156626506</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1208,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>298</v>
+        <v>627</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1216,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4285714285714285</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1234,95 +1228,71 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>60</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>0.05396825396825397</v>
+      </c>
+      <c r="L16">
+        <v>17</v>
+      </c>
+      <c r="M16">
+        <v>17</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>0.03246753246753246</v>
+      </c>
+      <c r="L17">
         <v>20</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16">
-        <v>0.0466867469879518</v>
-      </c>
-      <c r="L16">
-        <v>31</v>
-      </c>
-      <c r="M16">
-        <v>31</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="C17">
-        <v>18</v>
-      </c>
-      <c r="D17">
-        <v>18</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>60</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="M17">
+        <v>20</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K17">
-        <v>0.03462204270051933</v>
-      </c>
-      <c r="L17">
-        <v>60</v>
-      </c>
-      <c r="M17">
-        <v>63</v>
-      </c>
-      <c r="N17">
-        <v>0.95</v>
-      </c>
-      <c r="O17">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P17" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="K18">
-        <v>0.03409090909090909</v>
+        <v>0.0282258064516129</v>
       </c>
       <c r="L18">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1334,33 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19">
-        <v>0.02304737516005122</v>
-      </c>
-      <c r="L19">
-        <v>18</v>
-      </c>
-      <c r="M19">
-        <v>18</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>763</v>
+        <v>1687</v>
       </c>
     </row>
   </sheetData>
